--- a/R/model_final/Output.xlsx
+++ b/R/model_final/Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandrine\Documents\R_script\Planaqua_experiment\R\model_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038C233A-CC81-4CF4-8CB5-C88917B6D723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F690FB-1CEB-4886-8E44-15C5234E474E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -727,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,6 +776,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -789,7 +795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -801,6 +807,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,8 +1149,8 @@
   <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B219" sqref="B219"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5283,10 +5290,10 @@
       <c r="C180">
         <v>0.11659406987754831</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="9">
         <v>3.9198233746530711E-2</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="9">
         <v>0.48159821168429418</v>
       </c>
       <c r="F180">
@@ -5306,10 +5313,10 @@
       <c r="C181">
         <v>5.7471330607641098E-2</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="9">
         <v>0.76154275953235429</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="9">
         <v>0.97565832935360397</v>
       </c>
       <c r="F181">
@@ -5329,10 +5336,10 @@
       <c r="C182">
         <v>0.1382742577658671</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="9">
         <v>0.1214827186083651</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="9">
         <v>0.63167056202239624</v>
       </c>
       <c r="F182">
